--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2297.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2297.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.345863156663424</v>
+        <v>1.16936194896698</v>
       </c>
       <c r="B1">
-        <v>3.233856177818871</v>
+        <v>2.310781717300415</v>
       </c>
       <c r="C1">
-        <v>2.873501402634991</v>
+        <v>3.16610312461853</v>
       </c>
       <c r="D1">
-        <v>3.157366490085737</v>
+        <v>1.435409665107727</v>
       </c>
       <c r="E1">
-        <v>2.579233920770047</v>
+        <v>1.109761238098145</v>
       </c>
     </row>
   </sheetData>
